--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T10:08:33+00:00</t>
+    <t>2026-02-09T11:30:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T11:30:19+00:00</t>
+    <t>2026-02-09T12:15:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T12:15:55+00:00</t>
+    <t>2026-02-09T12:28:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T12:28:26+00:00</t>
+    <t>2026-02-10T07:57:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T07:57:24+00:00</t>
+    <t>2026-02-10T12:50:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T12:50:25+00:00</t>
+    <t>2026-02-16T11:22:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-16T11:22:57+00:00</t>
+    <t>2026-02-17T08:49:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T08:49:13+00:00</t>
+    <t>2026-02-17T08:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T08:59:32+00:00</t>
+    <t>2026-02-17T12:24:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T12:24:33+00:00</t>
+    <t>2026-02-18T13:09:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T13:09:07+00:00</t>
+    <t>2026-02-18T13:35:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T13:35:35+00:00</t>
+    <t>2026-02-18T14:43:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T14:43:59+00:00</t>
+    <t>2026-02-19T08:12:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T08:12:22+00:00</t>
+    <t>2026-02-19T08:49:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T08:49:26+00:00</t>
+    <t>2026-02-19T09:19:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T09:19:55+00:00</t>
+    <t>2026-02-19T09:59:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T09:59:51+00:00</t>
+    <t>2026-02-19T10:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T10:15:59+00:00</t>
+    <t>2026-02-19T10:59:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T10:59:57+00:00</t>
+    <t>2026-02-19T11:36:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T11:36:03+00:00</t>
+    <t>2026-02-19T12:37:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T12:37:09+00:00</t>
+    <t>2026-02-19T14:25:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2818" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2818" uniqueCount="518">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T14:25:22+00:00</t>
+    <t>2026-02-19T14:52:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,24 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profile for an Encounter resource representing a patient's hospital admission and stay for a stroke event, including key administrative and workflow details.</t>
+    <t>Profile for an Encounter representing a patient's **inpatient admission and hospital stay** for an index stroke event.
+**Primary use-case**
+- Acts as the episode anchor that Conditions, Observations, and Procedures reference via `encounter`, enabling consistent episode-level analytics.
+**Captures**
+- `status`: lifecycle state of the encounter (required).
+- `class`: fixed to inpatient (IMP) to represent an admission.
+- `actualPeriod`: start/end of the admission (required; end is required for completed stays).
+- `admission.admitSource`: arrival mode/origin (required binding to StrokeArrivalModeVS when present).
+- `admission.dischargeDisposition`: discharge destination (required binding to StrokeDischargeDestinationVS).
+- Episode-level extensions for operational/registry attributes:
+  - first hospital indicator,
+  - initial care intensity,
+  - required post-acute care flag,
+  - discharge department/service.
+**Typical scenarios**
+1) Direct admission via EMS from home: admitSource=EMS-from-home, isFirstHospital=true.
+2) Transfer-in: admitSource=another-hospital or stroke-center, isFirstHospital=false.
+3) Discharge home vs rehab vs death: dischargeDisposition captures destination/outcome; dischargeDepartmentService can capture service.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -471,6 +488,21 @@
 </t>
   </si>
   <si>
+    <t>First Hospital Indicator Extension</t>
+  </si>
+  <si>
+    <t>Boolean extension indicating whether the reporting hospital was the **first medical facility** to admit the patient
+for this stroke episode.
+**Primary use-cases**
+- Registry fields distinguishing “direct to treating hospital” vs “secondary transfer”.
+- Analytics for inter-facility transfer patterns and treatment delays (door-in-door-out style analyses).
+**How to interpret**
+- `true`: this hospital is the first admitting facility for the episode.
+- `false`: patient was admitted/treated elsewhere first (transfer-in).
+**FHIR placement**
+- `Encounter.extension[isFirstHospital].valueBoolean`</t>
+  </si>
+  <si>
     <t>Encounter.extension:initialCareIntensity</t>
   </si>
   <si>
@@ -481,6 +513,21 @@
 </t>
   </si>
   <si>
+    <t>Initial Care Intensity Extension</t>
+  </si>
+  <si>
+    <t>Extension capturing the **initial level of care** provided during the first day(s) of hospitalization for the stroke encounter.
+**Primary use-cases**
+- Operational reporting (ICU/stroke unit utilization).
+- Case-mix adjustment for outcomes and length-of-stay analyses.
+- Benchmarking across sites.
+**Relationship to base Encounter**
+- This is not a location/ward tracker; for physical moves use `Encounter.location` with Location references.
+- This is a categorical “initial intensity” label used for reporting.
+**FHIR placement**
+- `Encounter.extension[initialCareIntensity].valueCodeableConcept` (required binding to InitialCareIntensityVS).</t>
+  </si>
+  <si>
     <t>Encounter.extension:requiredPostAcuteCare</t>
   </si>
   <si>
@@ -491,6 +538,17 @@
 </t>
   </si>
   <si>
+    <t>Required Post-Acute Care Extension</t>
+  </si>
+  <si>
+    <t>Boolean extension indicating whether the patient required **ongoing inpatient care beyond the acute phase**.
+**Interpretation guidance**
+- `true`: patient required hospitalization beyond the acute phase (operationalized here as &gt;24 hours after the acute phase).
+- `false`: no extended post-acute inpatient need was recorded for this encounter (per local workflow).
+**FHIR placement**
+- `Encounter.extension[requiredPostAcuteCare].valueBoolean`</t>
+  </si>
+  <si>
     <t>Encounter.extension:dischargeDepartmentService</t>
   </si>
   <si>
@@ -499,6 +557,18 @@
   <si>
     <t xml:space="preserve">Extension {http://tecnomod-um.org/StructureDefinition/discharge-department-service-ext}
 </t>
+  </si>
+  <si>
+    <t>Discharge Department/Service Extension</t>
+  </si>
+  <si>
+    <t>Extension capturing the **clinical department/service** responsible at discharge or the service the patient is transferred to.
+**Primary use-cases**
+- Service-level reporting and capacity planning.
+- Distinguishing discharge under neurology vs rehab vs other services.
+- Supporting downstream routing/coordination logic when a service category is required.
+**FHIR placement**
+- `Encounter.extension[dischargeDepartmentService].valueCodeableConcept` (required binding to DischargeDeptVS).</t>
   </si>
   <si>
     <t>Encounter.modifierExtension</t>
@@ -3066,10 +3136,10 @@
         <v>144</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -3149,13 +3219,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>134</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>20</v>
@@ -3177,13 +3247,13 @@
         <v>20</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3263,13 +3333,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>134</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>20</v>
@@ -3291,13 +3361,13 @@
         <v>20</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3377,13 +3447,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>134</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>20</v>
@@ -3405,13 +3475,13 @@
         <v>20</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3491,14 +3561,14 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3520,16 +3590,16 @@
         <v>135</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>20</v>
@@ -3578,7 +3648,7 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3607,10 +3677,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3633,13 +3703,13 @@
         <v>89</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3690,7 +3760,7 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -3705,24 +3775,24 @@
         <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3748,13 +3818,13 @@
         <v>108</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3783,10 +3853,10 @@
         <v>112</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>20</v>
@@ -3804,7 +3874,7 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>88</v>
@@ -3819,24 +3889,24 @@
         <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3859,13 +3929,13 @@
         <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3877,7 +3947,7 @@
         <v>20</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>20</v>
@@ -3892,13 +3962,13 @@
         <v>20</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>20</v>
@@ -3916,7 +3986,7 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3934,21 +4004,21 @@
         <v>20</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3971,13 +4041,13 @@
         <v>20</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4004,13 +4074,13 @@
         <v>20</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>20</v>
@@ -4028,7 +4098,7 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -4046,21 +4116,21 @@
         <v>20</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4083,16 +4153,16 @@
         <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4118,13 +4188,13 @@
         <v>20</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>20</v>
@@ -4142,7 +4212,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -4157,24 +4227,24 @@
         <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4197,13 +4267,13 @@
         <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4230,13 +4300,13 @@
         <v>20</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>20</v>
@@ -4254,7 +4324,7 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -4269,28 +4339,28 @@
         <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4309,16 +4379,16 @@
         <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4368,7 +4438,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4383,24 +4453,24 @@
         <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4423,16 +4493,16 @@
         <v>20</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4458,13 +4528,13 @@
         <v>20</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>20</v>
@@ -4482,7 +4552,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4511,10 +4581,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4537,13 +4607,13 @@
         <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4594,7 +4664,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4612,25 +4682,25 @@
         <v>20</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4649,13 +4719,13 @@
         <v>20</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4706,7 +4776,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4721,13 +4791,13 @@
         <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>20</v>
@@ -4735,10 +4805,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4761,13 +4831,13 @@
         <v>20</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4818,7 +4888,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4839,7 +4909,7 @@
         <v>20</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>20</v>
@@ -4847,10 +4917,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4873,16 +4943,16 @@
         <v>20</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4932,7 +5002,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4947,13 +5017,13 @@
         <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>20</v>
@@ -4961,10 +5031,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4987,13 +5057,13 @@
         <v>20</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5044,7 +5114,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -5059,24 +5129,24 @@
         <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>262</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5099,16 +5169,16 @@
         <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5158,7 +5228,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5170,27 +5240,27 @@
         <v>20</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5213,13 +5283,13 @@
         <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5270,7 +5340,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5279,7 +5349,7 @@
         <v>88</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>20</v>
@@ -5291,7 +5361,7 @@
         <v>20</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>20</v>
@@ -5299,14 +5369,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5328,13 +5398,13 @@
         <v>135</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5384,7 +5454,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5405,7 +5475,7 @@
         <v>20</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>20</v>
@@ -5413,14 +5483,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5442,16 +5512,16 @@
         <v>135</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>20</v>
@@ -5500,7 +5570,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5529,10 +5599,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5555,16 +5625,16 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5590,13 +5660,13 @@
         <v>20</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>20</v>
@@ -5614,7 +5684,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5623,30 +5693,30 @@
         <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>296</v>
+        <v>304</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5669,13 +5739,13 @@
         <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5726,7 +5796,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5747,18 +5817,18 @@
         <v>20</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>302</v>
+        <v>310</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5781,16 +5851,16 @@
         <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5840,7 +5910,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5849,30 +5919,30 @@
         <v>88</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>310</v>
+        <v>318</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5895,13 +5965,13 @@
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5952,7 +6022,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5967,24 +6037,24 @@
         <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>316</v>
+        <v>324</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6007,16 +6077,16 @@
         <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6066,7 +6136,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6095,10 +6165,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6121,16 +6191,16 @@
         <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6180,7 +6250,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6195,24 +6265,24 @@
         <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>329</v>
+        <v>337</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6238,10 +6308,10 @@
         <v>90</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6292,7 +6362,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6301,7 +6371,7 @@
         <v>88</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>20</v>
@@ -6313,7 +6383,7 @@
         <v>20</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>20</v>
@@ -6321,14 +6391,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6350,13 +6420,13 @@
         <v>135</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6397,7 +6467,7 @@
         <v>138</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>20</v>
@@ -6406,7 +6476,7 @@
         <v>139</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6427,7 +6497,7 @@
         <v>20</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>20</v>
@@ -6435,10 +6505,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6461,16 +6531,16 @@
         <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6520,7 +6590,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6529,7 +6599,7 @@
         <v>88</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>100</v>
@@ -6541,18 +6611,18 @@
         <v>20</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>341</v>
+        <v>349</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6575,23 +6645,23 @@
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q41" t="s" s="2">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="R41" t="s" s="2">
         <v>20</v>
@@ -6636,7 +6706,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6645,7 +6715,7 @@
         <v>88</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>100</v>
@@ -6657,18 +6727,18 @@
         <v>20</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>349</v>
+        <v>357</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6691,13 +6761,13 @@
         <v>20</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6748,7 +6818,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6772,15 +6842,15 @@
         <v>20</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>353</v>
+        <v>361</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6803,13 +6873,13 @@
         <v>20</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6860,7 +6930,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6884,15 +6954,15 @@
         <v>20</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>357</v>
+        <v>365</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6915,16 +6985,16 @@
         <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6974,7 +7044,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6989,24 +7059,24 @@
         <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>364</v>
+        <v>372</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7029,16 +7099,16 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7088,7 +7158,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7117,10 +7187,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7143,13 +7213,13 @@
         <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7200,7 +7270,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7209,7 +7279,7 @@
         <v>88</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>20</v>
@@ -7221,7 +7291,7 @@
         <v>20</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>20</v>
@@ -7229,14 +7299,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7258,13 +7328,13 @@
         <v>135</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7314,7 +7384,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7335,7 +7405,7 @@
         <v>20</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>20</v>
@@ -7343,14 +7413,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7372,16 +7442,16 @@
         <v>135</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>20</v>
@@ -7430,7 +7500,7 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7459,10 +7529,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7485,13 +7555,13 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7518,11 +7588,11 @@
         <v>20</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="Y49" s="2"/>
       <c r="Z49" t="s" s="2">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>20</v>
@@ -7540,7 +7610,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7569,14 +7639,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7595,13 +7665,13 @@
         <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7628,13 +7698,13 @@
         <v>20</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>20</v>
@@ -7652,7 +7722,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7667,24 +7737,24 @@
         <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>386</v>
+        <v>394</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7707,16 +7777,16 @@
         <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7766,7 +7836,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7787,7 +7857,7 @@
         <v>20</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>20</v>
@@ -7795,10 +7865,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7821,13 +7891,13 @@
         <v>20</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7878,7 +7948,7 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7887,7 +7957,7 @@
         <v>88</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>20</v>
@@ -7899,7 +7969,7 @@
         <v>20</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>20</v>
@@ -7907,14 +7977,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7936,13 +8006,13 @@
         <v>135</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7992,7 +8062,7 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8013,7 +8083,7 @@
         <v>20</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>20</v>
@@ -8021,14 +8091,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8050,16 +8120,16 @@
         <v>135</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>20</v>
@@ -8108,7 +8178,7 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8137,14 +8207,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8163,13 +8233,13 @@
         <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8196,11 +8266,11 @@
         <v>20</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="Y55" s="2"/>
       <c r="Z55" t="s" s="2">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>20</v>
@@ -8218,7 +8288,7 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8233,24 +8303,24 @@
         <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>402</v>
+        <v>410</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8273,13 +8343,13 @@
         <v>20</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8306,13 +8376,13 @@
         <v>20</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>20</v>
@@ -8330,7 +8400,7 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8351,18 +8421,18 @@
         <v>20</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>408</v>
+        <v>416</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8385,16 +8455,16 @@
         <v>20</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8444,7 +8514,7 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8465,7 +8535,7 @@
         <v>20</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>20</v>
@@ -8473,10 +8543,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8499,19 +8569,19 @@
         <v>20</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>20</v>
@@ -8536,13 +8606,13 @@
         <v>20</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>20</v>
@@ -8560,7 +8630,7 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8581,18 +8651,18 @@
         <v>20</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>423</v>
+        <v>431</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8615,13 +8685,13 @@
         <v>20</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8648,13 +8718,13 @@
         <v>20</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>20</v>
@@ -8672,7 +8742,7 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8693,18 +8763,18 @@
         <v>20</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>430</v>
+        <v>438</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8727,16 +8797,16 @@
         <v>20</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8762,13 +8832,13 @@
         <v>20</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>20</v>
@@ -8786,7 +8856,7 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8807,18 +8877,18 @@
         <v>20</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>438</v>
+        <v>446</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8841,16 +8911,16 @@
         <v>20</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8900,7 +8970,7 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8921,7 +8991,7 @@
         <v>20</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>20</v>
@@ -8929,10 +8999,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8955,13 +9025,13 @@
         <v>20</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9012,7 +9082,7 @@
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9021,7 +9091,7 @@
         <v>88</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>20</v>
@@ -9033,7 +9103,7 @@
         <v>20</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>20</v>
@@ -9041,14 +9111,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9070,13 +9140,13 @@
         <v>135</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9126,7 +9196,7 @@
         <v>20</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9147,7 +9217,7 @@
         <v>20</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>20</v>
@@ -9155,14 +9225,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9184,16 +9254,16 @@
         <v>135</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>20</v>
@@ -9242,7 +9312,7 @@
         <v>20</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9271,10 +9341,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9297,13 +9367,13 @@
         <v>20</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9354,7 +9424,7 @@
         <v>20</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9375,18 +9445,18 @@
         <v>20</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>450</v>
+        <v>458</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9409,13 +9479,13 @@
         <v>20</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9466,7 +9536,7 @@
         <v>20</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9487,7 +9557,7 @@
         <v>20</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>20</v>
@@ -9495,10 +9565,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9521,13 +9591,13 @@
         <v>20</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9558,7 +9628,7 @@
       </c>
       <c r="Y67" s="2"/>
       <c r="Z67" t="s" s="2">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>20</v>
@@ -9576,7 +9646,7 @@
         <v>20</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -9597,18 +9667,18 @@
         <v>20</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>461</v>
+        <v>469</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9631,13 +9701,13 @@
         <v>20</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9664,13 +9734,13 @@
         <v>20</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>20</v>
@@ -9688,7 +9758,7 @@
         <v>20</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -9709,18 +9779,18 @@
         <v>20</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>467</v>
+        <v>475</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9743,13 +9813,13 @@
         <v>20</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9800,7 +9870,7 @@
         <v>20</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -9821,18 +9891,18 @@
         <v>20</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>472</v>
+        <v>480</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9855,13 +9925,13 @@
         <v>20</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9892,7 +9962,7 @@
       </c>
       <c r="Y70" s="2"/>
       <c r="Z70" t="s" s="2">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>20</v>
@@ -9910,7 +9980,7 @@
         <v>20</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -9931,18 +10001,18 @@
         <v>20</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>478</v>
+        <v>486</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9965,16 +10035,16 @@
         <v>20</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10024,7 +10094,7 @@
         <v>20</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10045,7 +10115,7 @@
         <v>20</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>20</v>
@@ -10053,10 +10123,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10079,13 +10149,13 @@
         <v>20</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10136,7 +10206,7 @@
         <v>20</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10145,7 +10215,7 @@
         <v>88</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>20</v>
@@ -10157,7 +10227,7 @@
         <v>20</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>20</v>
@@ -10165,14 +10235,14 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10194,13 +10264,13 @@
         <v>135</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10250,7 +10320,7 @@
         <v>20</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10271,7 +10341,7 @@
         <v>20</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>20</v>
@@ -10279,14 +10349,14 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10308,16 +10378,16 @@
         <v>135</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>20</v>
@@ -10366,7 +10436,7 @@
         <v>20</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -10395,10 +10465,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10421,13 +10491,13 @@
         <v>20</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10478,7 +10548,7 @@
         <v>20</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>88</v>
@@ -10493,24 +10563,24 @@
         <v>100</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>493</v>
+        <v>501</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10536,13 +10606,13 @@
         <v>108</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10571,10 +10641,10 @@
         <v>112</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>20</v>
@@ -10592,7 +10662,7 @@
         <v>20</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -10613,7 +10683,7 @@
         <v>20</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>20</v>
@@ -10621,10 +10691,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10647,16 +10717,16 @@
         <v>20</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -10682,13 +10752,13 @@
         <v>20</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>20</v>
@@ -10706,7 +10776,7 @@
         <v>20</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -10735,10 +10805,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10761,13 +10831,13 @@
         <v>20</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -10818,7 +10888,7 @@
         <v>20</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -10839,7 +10909,7 @@
         <v>20</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>20</v>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T14:52:32+00:00</t>
+    <t>2026-02-20T08:36:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:36:31+00:00</t>
+    <t>2026-02-20T08:43:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:43:58+00:00</t>
+    <t>2026-02-20T08:47:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:47:00+00:00</t>
+    <t>2026-02-20T09:39:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T09:39:34+00:00</t>
+    <t>2026-02-20T09:50:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T09:50:49+00:00</t>
+    <t>2026-02-20T10:05:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:05:07+00:00</t>
+    <t>2026-02-20T10:17:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:17:22+00:00</t>
+    <t>2026-02-20T10:31:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:31:35+00:00</t>
+    <t>2026-02-24T10:24:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
